--- a/Excel2MaiMLProtocol/INPUT/test/example4.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/test/example4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2DocandProtocolofMaiML/INPUT/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9402825D-FE35-3A44-8FAC-7E379ED0E3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26B41E-8E00-434B-960B-0803B2749311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="175">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -1314,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1528,12 +1528,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6017,7 +6011,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -6871,10 +6865,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -6888,12 +6882,12 @@
     <col min="8" max="9" width="20.1640625" style="45" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="45" customWidth="1"/>
     <col min="11" max="11" width="38.33203125" style="46" customWidth="1"/>
-    <col min="12" max="13" width="25.1640625" style="45"/>
-    <col min="14" max="14" width="5.83203125" style="44" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="44"/>
+    <col min="12" max="12" width="25.1640625" style="45"/>
+    <col min="13" max="13" width="5.83203125" style="44" customWidth="1"/>
+    <col min="14" max="16384" width="25.1640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -6928,13 +6922,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="50" t="s">
         <v>67</v>
       </c>
@@ -6955,9 +6946,8 @@
       <c r="J2" s="51"/>
       <c r="K2" s="53"/>
       <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>67</v>
       </c>
@@ -6982,9 +6972,8 @@
         <v>81</v>
       </c>
       <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
       <c r="A4" s="50" t="s">
         <v>67</v>
       </c>
@@ -7009,9 +6998,8 @@
         <v>80</v>
       </c>
       <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -7024,9 +7012,8 @@
       <c r="J5" s="51"/>
       <c r="K5" s="68"/>
       <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="50" t="s">
         <v>68</v>
       </c>
@@ -7044,14 +7031,13 @@
       <c r="G6" s="52"/>
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="70"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="53"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51" t="s">
+      <c r="L6" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
+    <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>68</v>
       </c>
@@ -7069,18 +7055,17 @@
       <c r="G7" s="52"/>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="51" t="s">
         <v>116</v>
       </c>
       <c r="K7" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51" t="s">
+      <c r="L7" s="51" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    <row r="8" spans="1:12" ht="24" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>68</v>
       </c>
@@ -7098,16 +7083,15 @@
       <c r="G8" s="52"/>
       <c r="H8" s="51"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="51" t="s">
         <v>139</v>
       </c>
       <c r="K8" s="68"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51" t="s">
+      <c r="L8" s="51" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1">
+    <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="A9" s="50" t="s">
         <v>68</v>
       </c>
@@ -7125,18 +7109,17 @@
       <c r="G9" s="52"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="51" t="s">
         <v>116</v>
       </c>
       <c r="K9" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51" t="s">
+      <c r="L9" s="51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    <row r="10" spans="1:12" ht="24" customHeight="1">
       <c r="A10" s="50" t="s">
         <v>68</v>
       </c>
@@ -7154,16 +7137,15 @@
       <c r="G10" s="52"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="51" t="s">
         <v>145</v>
       </c>
       <c r="K10" s="68"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51" t="s">
+      <c r="L10" s="51" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1">
+    <row r="11" spans="1:12" ht="24" customHeight="1">
       <c r="A11" s="50" t="s">
         <v>68</v>
       </c>
@@ -7181,16 +7163,15 @@
       <c r="G11" s="52"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="51" t="s">
         <v>116</v>
       </c>
       <c r="K11" s="68"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51" t="s">
+      <c r="L11" s="51" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1">
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="50" t="s">
         <v>68</v>
       </c>
@@ -7208,18 +7189,17 @@
       <c r="G12" s="52"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="51" t="s">
         <v>165</v>
       </c>
       <c r="K12" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51" t="s">
+      <c r="L12" s="51" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1">
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="50" t="s">
         <v>68</v>
       </c>
@@ -7237,18 +7217,17 @@
       <c r="G13" s="52"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="51" t="s">
         <v>116</v>
       </c>
       <c r="K13" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51" t="s">
+      <c r="L13" s="51" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1">
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="50" t="s">
         <v>68</v>
       </c>
@@ -7266,18 +7245,17 @@
       <c r="G14" s="52"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="51" t="s">
         <v>169</v>
       </c>
       <c r="K14" t="s">
         <v>172</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51" t="s">
+      <c r="L14" s="51" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1">
+    <row r="15" spans="1:12" ht="24" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -7287,12 +7265,11 @@
       <c r="G15" s="52"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="70"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="68"/>
       <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="50" t="s">
         <v>133</v>
       </c>
@@ -7310,12 +7287,11 @@
       <c r="G16" s="52"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="70"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="53"/>
       <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1">
       <c r="A17" s="50" t="s">
         <v>133</v>
       </c>
@@ -7333,16 +7309,15 @@
       <c r="G17" s="52"/>
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="51" t="s">
         <v>75</v>
       </c>
       <c r="K17" s="53" t="s">
         <v>81</v>
       </c>
       <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1">
       <c r="A18" s="50" t="s">
         <v>133</v>
       </c>
@@ -7360,16 +7335,15 @@
       <c r="G18" s="52"/>
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="51" t="s">
         <v>75</v>
       </c>
       <c r="K18" s="53" t="s">
         <v>80</v>
       </c>
       <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -7379,12 +7353,11 @@
       <c r="G19" s="52"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="70"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="68"/>
       <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="24" customHeight="1">
       <c r="A20" s="50" t="s">
         <v>134</v>
       </c>
@@ -7402,14 +7375,13 @@
       <c r="G20" s="52"/>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="70"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="53"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51" t="s">
+      <c r="L20" s="51" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="24" customHeight="1">
+    <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="50" t="s">
         <v>134</v>
       </c>
@@ -7427,14 +7399,13 @@
       <c r="G21" s="52"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="51" t="s">
         <v>109</v>
       </c>
       <c r="K21" s="53"/>
       <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1">
       <c r="A22" s="50" t="s">
         <v>134</v>
       </c>
@@ -7452,14 +7423,13 @@
       <c r="G22" s="52"/>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
-      <c r="J22" s="70"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="53"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51" t="s">
+      <c r="L22" s="51" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24" customHeight="1">
+    <row r="23" spans="1:12" ht="24" customHeight="1">
       <c r="A23" s="50" t="s">
         <v>134</v>
       </c>
@@ -7477,16 +7447,15 @@
       <c r="G23" s="52"/>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
-      <c r="J23" s="70" t="s">
+      <c r="J23" s="51" t="s">
         <v>146</v>
       </c>
       <c r="K23" s="53"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51" t="s">
+      <c r="L23" s="51" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1">
+    <row r="24" spans="1:12" ht="24" customHeight="1">
       <c r="A24" s="50" t="s">
         <v>134</v>
       </c>
@@ -7504,14 +7473,13 @@
       <c r="G24" s="52"/>
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
-      <c r="J24" s="70"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="53"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51" t="s">
+      <c r="L24" s="51" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1">
+    <row r="25" spans="1:12" ht="24" customHeight="1">
       <c r="A25" s="50" t="s">
         <v>134</v>
       </c>
@@ -7529,16 +7497,15 @@
       <c r="G25" s="52"/>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="51" t="s">
         <v>119</v>
       </c>
       <c r="K25" s="53" t="s">
         <v>154</v>
       </c>
       <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-    </row>
-    <row r="26" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="26" spans="1:12" ht="24" customHeight="1">
       <c r="A26" s="50" t="s">
         <v>134</v>
       </c>
@@ -7556,12 +7523,11 @@
       <c r="G26" s="52"/>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
-      <c r="J26" s="70"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="53"/>
       <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-    </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="27" spans="1:12" ht="24" customHeight="1">
       <c r="A27" s="50" t="s">
         <v>134</v>
       </c>
@@ -7581,14 +7547,13 @@
       <c r="G27" s="52"/>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K27" s="53"/>
       <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-    </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="28" spans="1:12" ht="24" customHeight="1">
       <c r="A28" s="50" t="s">
         <v>134</v>
       </c>
@@ -7608,14 +7573,13 @@
       <c r="G28" s="52"/>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K28" s="53"/>
       <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-    </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="29" spans="1:12" ht="24" customHeight="1">
       <c r="A29" s="50" t="s">
         <v>134</v>
       </c>
@@ -7635,14 +7599,13 @@
       <c r="G29" s="52"/>
       <c r="H29" s="51"/>
       <c r="I29" s="51"/>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K29" s="53"/>
       <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="30" spans="1:12" ht="24" customHeight="1">
       <c r="A30" s="50" t="s">
         <v>134</v>
       </c>
@@ -7662,16 +7625,15 @@
       <c r="G30" s="52"/>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K30" s="53">
         <v>272</v>
       </c>
       <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="31" spans="1:12" ht="24" customHeight="1">
       <c r="A31" s="50" t="s">
         <v>134</v>
       </c>
@@ -7691,16 +7653,15 @@
       <c r="G31" s="52"/>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
-      <c r="J31" s="70" t="s">
+      <c r="J31" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K31" s="53">
         <v>600</v>
       </c>
       <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-    </row>
-    <row r="32" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -7710,12 +7671,11 @@
       <c r="G32" s="52"/>
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
-      <c r="J32" s="70"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="68"/>
       <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1">
       <c r="A33" s="50" t="s">
         <v>69</v>
       </c>
@@ -7733,14 +7693,13 @@
       <c r="G33" s="52"/>
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
-      <c r="J33" s="70"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="53"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51" t="s">
+      <c r="L33" s="51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="24" customHeight="1">
+    <row r="34" spans="1:12" ht="24" customHeight="1">
       <c r="A34" s="50" t="s">
         <v>69</v>
       </c>
@@ -7758,14 +7717,13 @@
       <c r="G34" s="52"/>
       <c r="H34" s="51"/>
       <c r="I34" s="51"/>
-      <c r="J34" s="70"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="53"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51" t="s">
+      <c r="L34" s="51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="24" customHeight="1">
+    <row r="35" spans="1:12" ht="24" customHeight="1">
       <c r="A35" s="50" t="s">
         <v>69</v>
       </c>
@@ -7785,14 +7743,13 @@
       <c r="G35" s="52"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
-      <c r="J35" s="70"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="53"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51" t="s">
+      <c r="L35" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="24" customHeight="1">
+    <row r="36" spans="1:12" ht="24" customHeight="1">
       <c r="A36" s="50" t="s">
         <v>69</v>
       </c>
@@ -7812,14 +7769,13 @@
       <c r="G36" s="52"/>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
-      <c r="J36" s="70"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="53"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51" t="s">
+      <c r="L36" s="51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="24" customHeight="1">
+    <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>69</v>
       </c>
@@ -7839,14 +7795,13 @@
       <c r="G37" s="52"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
-      <c r="J37" s="70"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51" t="s">
+      <c r="L37" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="24" customHeight="1">
+    <row r="38" spans="1:12" ht="24" customHeight="1">
       <c r="A38" s="50" t="s">
         <v>69</v>
       </c>
@@ -7868,14 +7823,13 @@
         <v>120</v>
       </c>
       <c r="I38" s="51"/>
-      <c r="J38" s="70"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51" t="s">
+      <c r="L38" s="51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="24" customHeight="1">
+    <row r="39" spans="1:12" ht="24" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>69</v>
       </c>
@@ -7895,14 +7849,13 @@
         <v>93</v>
       </c>
       <c r="I39" s="51"/>
-      <c r="J39" s="70"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51" t="s">
+      <c r="L39" s="51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="24" customHeight="1">
+    <row r="40" spans="1:12" ht="24" customHeight="1">
       <c r="A40" s="50" t="s">
         <v>69</v>
       </c>
@@ -7920,12 +7873,11 @@
       <c r="G40" s="52"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
-      <c r="J40" s="70"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="53"/>
       <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-    </row>
-    <row r="41" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="41" spans="1:12" ht="24" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>69</v>
       </c>
@@ -7945,14 +7897,13 @@
       <c r="G41" s="52"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
-      <c r="J41" s="71" t="s">
+      <c r="J41" s="54" t="s">
         <v>121</v>
       </c>
       <c r="K41" s="53"/>
       <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-    </row>
-    <row r="42" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="42" spans="1:12" ht="24" customHeight="1">
       <c r="A42" s="50" t="s">
         <v>69</v>
       </c>
@@ -7972,14 +7923,13 @@
       <c r="G42" s="52"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="71" t="s">
+      <c r="J42" s="54" t="s">
         <v>121</v>
       </c>
       <c r="K42" s="53"/>
       <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-    </row>
-    <row r="43" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="43" spans="1:12" ht="24" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>69</v>
       </c>
@@ -7999,14 +7949,13 @@
       <c r="G43" s="52"/>
       <c r="H43" s="51"/>
       <c r="I43" s="51"/>
-      <c r="J43" s="70" t="s">
+      <c r="J43" s="51" t="s">
         <v>100</v>
       </c>
       <c r="K43" s="53"/>
       <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-    </row>
-    <row r="44" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="44" spans="1:12" ht="24" customHeight="1">
       <c r="A44" s="50" t="s">
         <v>69</v>
       </c>
@@ -8024,14 +7973,13 @@
       <c r="G44" s="52"/>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
-      <c r="J44" s="70" t="s">
+      <c r="J44" s="51" t="s">
         <v>100</v>
       </c>
       <c r="K44" s="53"/>
       <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-    </row>
-    <row r="45" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="45" spans="1:12" ht="24" customHeight="1">
       <c r="A45" s="50" t="s">
         <v>69</v>
       </c>
@@ -8049,14 +7997,13 @@
       <c r="G45" s="52"/>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="54" t="s">
         <v>121</v>
       </c>
       <c r="K45" s="53"/>
       <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-    </row>
-    <row r="46" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="46" spans="1:12" ht="24" customHeight="1">
       <c r="A46" s="50" t="s">
         <v>69</v>
       </c>
@@ -8079,9 +8026,8 @@
       </c>
       <c r="K46" s="53"/>
       <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-    </row>
-    <row r="47" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="47" spans="1:12" ht="24" customHeight="1">
       <c r="A47" s="50" t="s">
         <v>69</v>
       </c>
@@ -8104,7 +8050,6 @@
       </c>
       <c r="K47" s="53"/>
       <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/Excel2MaiMLProtocol/INPUT/test/example4.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/test/example4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2DocandProtocolofMaiML/INPUT/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26B41E-8E00-434B-960B-0803B2749311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C741C0F1-A794-234D-A05B-3711917E4BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6868,7 +6868,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -7923,8 +7923,8 @@
       <c r="G42" s="52"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="54" t="s">
-        <v>121</v>
+      <c r="J42" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="K42" s="53"/>
       <c r="L42" s="51"/>
@@ -7973,8 +7973,8 @@
       <c r="G44" s="52"/>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
-      <c r="J44" s="51" t="s">
-        <v>100</v>
+      <c r="J44" s="54" t="s">
+        <v>121</v>
       </c>
       <c r="K44" s="53"/>
       <c r="L44" s="51"/>

--- a/Excel2MaiMLProtocol/INPUT/test/example4.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/test/example4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2DocandProtocolofMaiML/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiMLFileHandlingPtograms/Excel2DocandProtocolofMaiML/INPUT/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C741C0F1-A794-234D-A05B-3711917E4BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12A673D-9183-8C42-8B58-4F75FDB35E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="176">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -880,6 +880,10 @@
   </si>
   <si>
     <t>HPLC_Sample_Preparation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6636,10 +6640,83 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="9" width="26.6640625" style="2"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B21F46-C424-6A4F-8FFC-BA2D61EB5EC2}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -6656,7 +6733,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -6676,103 +6753,39 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>125</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="48" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
+      <c r="G2" s="67" t="s">
+        <v>135</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B21F46-C424-6A4F-8FFC-BA2D61EB5EC2}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6785,19 +6798,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="2"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -6805,54 +6818,59 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6867,7 +6885,7 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
